--- a/Master/1710中期考核/GAD1primer.xlsx
+++ b/Master/1710中期考核/GAD1primer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="440" windowWidth="24680" windowHeight="15560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24600" windowHeight="15560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>P123-F1</t>
   </si>
@@ -92,13 +92,40 @@
   </si>
   <si>
     <t>GGAGTTTATTTTCTGGACCATCC</t>
+  </si>
+  <si>
+    <r>
+      <t>tcgagctcggtacccgg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TCAATGCAACCTTCCATTACCTTA</t>
+    </r>
+  </si>
+  <si>
+    <t>An1WP3F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +152,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -222,6 +268,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,7 +662,7 @@
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -630,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -662,6 +710,14 @@
     <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Master/1710中期考核/GAD1primer.xlsx
+++ b/Master/1710中期考核/GAD1primer.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>P123-F1</t>
   </si>
@@ -70,20 +70,12 @@
   </si>
   <si>
     <t>CCGTGTAATATGCCAGGACAA</t>
-  </si>
-  <si>
-    <t>LysDec-F(1F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lys-320F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lys-1265R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Lys-900R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,38 +86,33 @@
     <t>GGAGTTTATTTTCTGGACCATCC</t>
   </si>
   <si>
-    <r>
-      <t>tcgagctcggtacccgg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TCAATGCAACCTTCCATTACCTTA</t>
-    </r>
-  </si>
-  <si>
-    <t>An1WP3F</t>
+    <t>LYS-UP-F1</t>
+  </si>
+  <si>
+    <t>TATGCTCTGGGCTGACATGGATCAG</t>
+  </si>
+  <si>
+    <t>LYS1265-R</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGAGCAAAGGAAGAAGAGAAGA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LysDecFL-F</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAGTGGGATCTCTCTCCATCCATT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,26 +140,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -242,6 +227,21 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -268,8 +268,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,7 +659,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,42 +692,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Oligo名称" prompt="请给定每个Oligo一个唯一的名称,为方便检索此栏请务必填写." sqref="A6:A7 A10"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="序列要求" prompt="序列大小写均可以，兼并碱基请用以下代码: R(A,g), Y(C,T), M(A,C), K(g,T), S(g,C), W(A,T), H(A,T,C), B(g,T,C), V(g,A,C), D(g,A,T), N(A,T,g,C)；为配合我们自动录入时的准确性，序列中请不要使用空格或其它非序列信息符号" sqref="B6:B7 B10">
+      <formula1>4</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>